--- a/evento_simplificado.xlsx
+++ b/evento_simplificado.xlsx
@@ -34,20 +34,69 @@
       <u val="single"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -58,7 +107,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -76,6 +125,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -448,7 +519,7 @@
   <dimension ref="A1:H254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -497,600 +568,624 @@
       <c r="H1" s="4" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <f>conversao!A2</f>
-        <v/>
-      </c>
-      <c r="B2" s="4">
-        <f>conversao!B2</f>
-        <v/>
-      </c>
-      <c r="C2" s="4">
-        <f>conversao!C2</f>
-        <v/>
-      </c>
-      <c r="D2" s="4">
-        <f>conversao!D2</f>
-        <v/>
-      </c>
-      <c r="E2" s="4">
-        <f>conversao!E2</f>
-        <v/>
+      <c r="A2" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F2" s="4" t="n">
         <v>50.27</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <f>conversao!A3</f>
-        <v/>
-      </c>
-      <c r="B3" s="4">
-        <f>conversao!B3</f>
-        <v/>
-      </c>
-      <c r="C3" s="4">
-        <f>conversao!C3</f>
-        <v/>
-      </c>
-      <c r="D3" s="4">
-        <f>conversao!D3</f>
-        <v/>
-      </c>
-      <c r="E3" s="4">
-        <f>conversao!E3</f>
-        <v/>
+      <c r="A3" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>lucas</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F3" s="4" t="n">
         <v>0.95</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <f>conversao!A4</f>
-        <v/>
-      </c>
-      <c r="B4" s="4">
-        <f>conversao!B4</f>
-        <v/>
-      </c>
-      <c r="C4" s="4">
-        <f>conversao!C4</f>
-        <v/>
-      </c>
-      <c r="D4" s="4">
-        <f>conversao!D4</f>
-        <v/>
-      </c>
-      <c r="E4" s="4">
-        <f>conversao!E4</f>
-        <v/>
+      <c r="A4" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F4" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <f>conversao!A5</f>
-        <v/>
-      </c>
-      <c r="B5" s="4">
-        <f>conversao!B5</f>
-        <v/>
-      </c>
-      <c r="C5" s="4">
-        <f>conversao!C5</f>
-        <v/>
-      </c>
-      <c r="D5" s="4">
-        <f>conversao!D5</f>
-        <v/>
-      </c>
-      <c r="E5" s="4">
-        <f>conversao!E5</f>
-        <v/>
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>paulo</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F5" s="4" t="n">
         <v>34.22</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <f>conversao!A6</f>
-        <v/>
-      </c>
-      <c r="B6" s="4">
-        <f>conversao!B6</f>
-        <v/>
-      </c>
-      <c r="C6" s="4">
-        <f>conversao!C6</f>
-        <v/>
-      </c>
-      <c r="D6" s="4">
-        <f>conversao!D6</f>
-        <v/>
-      </c>
-      <c r="E6" s="4">
-        <f>conversao!E6</f>
-        <v/>
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F6" s="4" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <f>conversao!A7</f>
-        <v/>
-      </c>
-      <c r="B7" s="4">
-        <f>conversao!B7</f>
-        <v/>
-      </c>
-      <c r="C7" s="4">
-        <f>conversao!C7</f>
-        <v/>
-      </c>
-      <c r="D7" s="4">
-        <f>conversao!D7</f>
-        <v/>
-      </c>
-      <c r="E7" s="4">
-        <f>conversao!E7</f>
-        <v/>
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maria </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F7" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <f>conversao!A8</f>
-        <v/>
-      </c>
-      <c r="B8" s="4">
-        <f>conversao!B8</f>
-        <v/>
-      </c>
-      <c r="C8" s="4">
-        <f>conversao!C8</f>
-        <v/>
-      </c>
-      <c r="D8" s="4">
-        <f>conversao!D8</f>
-        <v/>
-      </c>
-      <c r="E8" s="4">
-        <f>conversao!E8</f>
-        <v/>
+      <c r="A8" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>madalena</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F8" s="4" t="n">
         <v>2.92</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <f>conversao!A9</f>
-        <v/>
-      </c>
-      <c r="B9" s="4">
-        <f>conversao!B9</f>
-        <v/>
-      </c>
-      <c r="C9" s="4">
-        <f>conversao!C9</f>
-        <v/>
-      </c>
-      <c r="D9" s="4">
-        <f>conversao!D9</f>
-        <v/>
-      </c>
-      <c r="E9" s="4">
-        <f>conversao!E9</f>
-        <v/>
+      <c r="A9" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>soraya</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F9" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <f>conversao!A10</f>
-        <v/>
-      </c>
-      <c r="B10" s="4">
-        <f>conversao!B10</f>
-        <v/>
-      </c>
-      <c r="C10" s="4">
-        <f>conversao!C10</f>
-        <v/>
-      </c>
-      <c r="D10" s="4">
-        <f>conversao!D10</f>
-        <v/>
-      </c>
-      <c r="E10" s="4">
-        <f>conversao!E10</f>
-        <v/>
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>joyce</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F10" t="n">
         <v>63.7</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <f>conversao!A11</f>
-        <v/>
-      </c>
-      <c r="B11" s="4">
-        <f>conversao!B11</f>
-        <v/>
-      </c>
-      <c r="C11" s="4">
-        <f>conversao!C11</f>
-        <v/>
-      </c>
-      <c r="D11" s="4">
-        <f>conversao!D11</f>
-        <v/>
-      </c>
-      <c r="E11" s="4">
-        <f>conversao!E11</f>
-        <v/>
+      <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>carla</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F11" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <f>conversao!A12</f>
-        <v/>
-      </c>
-      <c r="B12" s="4">
-        <f>conversao!B12</f>
-        <v/>
-      </c>
-      <c r="C12" s="4">
-        <f>conversao!C12</f>
-        <v/>
-      </c>
-      <c r="D12" s="4">
-        <f>conversao!D12</f>
-        <v/>
-      </c>
-      <c r="E12" s="4">
-        <f>conversao!E12</f>
-        <v/>
+      <c r="A12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>vanessa</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <f>conversao!A13</f>
-        <v/>
-      </c>
-      <c r="B13" s="4">
-        <f>conversao!B13</f>
-        <v/>
-      </c>
-      <c r="C13" s="4">
-        <f>conversao!C13</f>
-        <v/>
-      </c>
-      <c r="D13" s="4">
-        <f>conversao!D13</f>
-        <v/>
-      </c>
-      <c r="E13" s="4">
-        <f>conversao!E13</f>
-        <v/>
+      <c r="A13" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>ruan</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F13" t="n">
         <v>12.62</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <f>conversao!A14</f>
-        <v/>
-      </c>
-      <c r="B14" s="4">
-        <f>conversao!B14</f>
-        <v/>
-      </c>
-      <c r="C14" s="4">
-        <f>conversao!C14</f>
-        <v/>
-      </c>
-      <c r="D14" s="4">
-        <f>conversao!D14</f>
-        <v/>
-      </c>
-      <c r="E14" s="4">
-        <f>conversao!E14</f>
-        <v/>
+      <c r="A14" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>vitor</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F14" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <f>conversao!A15</f>
-        <v/>
-      </c>
-      <c r="B15" s="4">
-        <f>conversao!B15</f>
-        <v/>
-      </c>
-      <c r="C15" s="4">
-        <f>conversao!C15</f>
-        <v/>
-      </c>
-      <c r="D15" s="4">
-        <f>conversao!D15</f>
-        <v/>
-      </c>
-      <c r="E15" s="4">
-        <f>conversao!E15</f>
-        <v/>
+      <c r="A15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>harry</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F15" t="n">
         <v>50.7</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <f>conversao!A16</f>
-        <v/>
-      </c>
-      <c r="B16" s="4">
-        <f>conversao!B16</f>
-        <v/>
-      </c>
-      <c r="C16" s="4">
-        <f>conversao!C16</f>
-        <v/>
-      </c>
-      <c r="D16" s="4">
-        <f>conversao!D16</f>
-        <v/>
-      </c>
-      <c r="E16" s="4">
-        <f>conversao!E16</f>
-        <v/>
+      <c r="A16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>ronny</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F16" t="n">
         <v>4.57</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <f>conversao!A17</f>
-        <v/>
-      </c>
-      <c r="B17" s="4">
-        <f>conversao!B17</f>
-        <v/>
-      </c>
-      <c r="C17" s="4">
-        <f>conversao!C17</f>
-        <v/>
-      </c>
-      <c r="D17" s="4">
-        <f>conversao!D17</f>
-        <v/>
-      </c>
-      <c r="E17" s="4">
-        <f>conversao!E17</f>
-        <v/>
+      <c r="A17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>salazar</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F17" t="n">
         <v>47.12</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <f>conversao!A18</f>
-        <v/>
-      </c>
-      <c r="B18" s="4">
-        <f>conversao!B18</f>
-        <v/>
-      </c>
-      <c r="C18" s="4">
-        <f>conversao!C18</f>
-        <v/>
-      </c>
-      <c r="D18" s="4">
-        <f>conversao!D18</f>
-        <v/>
-      </c>
-      <c r="E18" s="4">
-        <f>conversao!E18</f>
-        <v/>
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>grinfindor</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F18" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <f>conversao!A19</f>
-        <v/>
-      </c>
-      <c r="B19" s="4">
-        <f>conversao!B19</f>
-        <v/>
-      </c>
-      <c r="C19" s="4">
-        <f>conversao!C19</f>
-        <v/>
-      </c>
-      <c r="D19" s="4">
-        <f>conversao!D19</f>
-        <v/>
-      </c>
-      <c r="E19" s="4">
-        <f>conversao!E19</f>
-        <v/>
+      <c r="A19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>wesley</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F19" t="n">
         <v>57.97</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <f>conversao!A20</f>
-        <v/>
-      </c>
-      <c r="B20" s="4">
-        <f>conversao!B20</f>
-        <v/>
-      </c>
-      <c r="C20" s="4">
-        <f>conversao!C20</f>
-        <v/>
-      </c>
-      <c r="D20" s="4">
-        <f>conversao!D20</f>
-        <v/>
-      </c>
-      <c r="E20" s="4">
-        <f>conversao!E20</f>
-        <v/>
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">armando </t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F20" t="n">
         <v>1.72</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <f>conversao!A21</f>
-        <v/>
-      </c>
-      <c r="B21" s="4">
-        <f>conversao!B21</f>
-        <v/>
-      </c>
-      <c r="C21" s="4">
-        <f>conversao!C21</f>
-        <v/>
-      </c>
-      <c r="D21" s="4">
-        <f>conversao!D21</f>
-        <v/>
-      </c>
-      <c r="E21" s="4">
-        <f>conversao!E21</f>
-        <v/>
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>francisco</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F21" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <f>conversao!A22</f>
-        <v/>
-      </c>
-      <c r="B22" s="4">
-        <f>conversao!B22</f>
-        <v/>
-      </c>
-      <c r="C22" s="4">
-        <f>conversao!C22</f>
-        <v/>
-      </c>
-      <c r="D22" s="4">
-        <f>conversao!D22</f>
-        <v/>
-      </c>
-      <c r="E22" s="4">
-        <f>conversao!E22</f>
-        <v/>
+      <c r="A22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fernando </t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <f>conversao!A23</f>
-        <v/>
-      </c>
-      <c r="B23" s="4">
-        <f>conversao!B23</f>
-        <v/>
-      </c>
-      <c r="C23" s="4">
-        <f>conversao!C23</f>
-        <v/>
-      </c>
-      <c r="D23" s="4">
-        <f>conversao!D23</f>
-        <v/>
-      </c>
-      <c r="E23" s="4">
-        <f>conversao!E23</f>
-        <v/>
+      <c r="A23" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>asdfghj</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F23" t="n">
         <v>14.23</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <f>conversao!A24</f>
-        <v/>
-      </c>
-      <c r="B24" s="4">
-        <f>conversao!B24</f>
-        <v/>
-      </c>
-      <c r="C24" s="4">
-        <f>conversao!C24</f>
-        <v/>
-      </c>
-      <c r="D24" s="4">
-        <f>conversao!D24</f>
-        <v/>
-      </c>
-      <c r="E24" s="4">
-        <f>conversao!E24</f>
-        <v/>
+      <c r="A24" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>fghjkhg</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F24" t="n">
         <v>1.62</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <f>conversao!A25</f>
-        <v/>
-      </c>
-      <c r="B25" s="4">
-        <f>conversao!B25</f>
-        <v/>
-      </c>
-      <c r="C25" s="4">
-        <f>conversao!C25</f>
-        <v/>
-      </c>
-      <c r="D25" s="4">
-        <f>conversao!D25</f>
-        <v/>
-      </c>
-      <c r="E25" s="4">
-        <f>conversao!E25</f>
-        <v/>
+      <c r="A25" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>hasjas</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Folha</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
       </c>
       <c r="F25" t="n">
         <v>4</v>
